--- a/biology/Médecine/Artère_circonflexe_de_la_scapula/Artère_circonflexe_de_la_scapula.xlsx
+++ b/biology/Médecine/Artère_circonflexe_de_la_scapula/Artère_circonflexe_de_la_scapula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_de_la_scapula</t>
+          <t>Artère_circonflexe_de_la_scapula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère circonflexe de la scapula (ou branche postérieure de l’artère sous-scapulaire ou branche scapulaire de l’artère sous-scapulaire) est une artère du membre supérieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_de_la_scapula</t>
+          <t>Artère_circonflexe_de_la_scapula</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère circonflexe de la scapula est une branche terminale de l'artère subscapulaire.
 Elle s'incurve autour du bord axillaire de l'omoplate et traverse l'espace axillaire médial. anatomique entre le muscle petit rond en haut, le muscle grand rond en bas et du chef long du muscle triceps brachial latéralement.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_de_la_scapula</t>
+          <t>Artère_circonflexe_de_la_scapula</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Zone de vascularisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle donne trois rameaux :
 un rameau antérieur pénètre dans la fosse subscapulaire sous le muscle subscapulaire qu'elle vascularise et s'anastomose avec l'artère scapulaire transversale et l'artère scapulaire dorsale ;
